--- a/doc/AgeGrading_Track_Male_2023.xlsx
+++ b/doc/AgeGrading_Track_Male_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crouzier/private/mcrrc/site/race-team-records/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BFD5A-89D1-C049-BD71-57627781DCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD5ABF-0BF1-5B4F-A588-4B9B5FDF9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="2040" windowWidth="32300" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242FB819-F340-6D49-BCC6-6BAAE4F5AA3C}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5885,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A7D75-3BE2-6A41-95DE-FA457D92E5E2}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/AgeGrading_Track_Male_2023.xlsx
+++ b/doc/AgeGrading_Track_Male_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crouzier/private/mcrrc/site/race-team-records/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD5ABF-0BF1-5B4F-A588-4B9B5FDF9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4402F7EC-134C-974A-AA1D-239913341D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="2040" windowWidth="32300" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="2040" windowWidth="32300" windowHeight="18480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Track men 2023" sheetId="5" r:id="rId1"/>
@@ -418,9 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242FB819-F340-6D49-BCC6-6BAAE4F5AA3C}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
@@ -5885,7 +5885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A7D75-3BE2-6A41-95DE-FA457D92E5E2}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -12189,7 +12189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03149F-1B30-B74E-8E23-D97745A564E4}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
